--- a/Core Visuals Board Data.xlsx
+++ b/Core Visuals Board Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4675f75f26784d37/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Injae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_377898ABFBE78734B3913207D9D9731E96107A2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6BF030-A64F-4ACC-AF58-268FD81B2F2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97E4DAD-FA60-4F36-A111-A08DB9E49474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4908" yWindow="2868" windowWidth="18936" windowHeight="10104" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="1512" windowWidth="25788" windowHeight="14592" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dependencies" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4955" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="1270">
   <si>
     <t>MilestoneId</t>
   </si>
@@ -3825,6 +3825,24 @@
   </si>
   <si>
     <t>FeatureSort</t>
+  </si>
+  <si>
+    <t>Category Icons Selected</t>
+  </si>
+  <si>
+    <t>Category Icons unselected</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABoAAAAgCAYAAAAMq2gFAAAAAXNSR0IArs4c6QAAAt5JREFUSEvtlm1IU1EYx59zX3a3aYPSJr3OtA9BZIFSH9LIskVQph8K13whFFNMK8iKkNCKMMJCk9RIGChZ+K1EGFJJpQmmRW+UFFZGTiGd5rZ7d+/OiQ0MV9t1bkgf7Hw9z/P/Pfd/nnPPg2CWZcgU0lgllG5JQLYPAxA/M9xmwzQm0Ms7SEVLk+qpnBSS2zTkCOs5jtwrO83GxMZQPkP7XuCRGw3iJBa4zSYTsvrT8wIdNNq3UohOVKmIXqlCX3ge1ulTqPiMA4xCrqCr1ZL97TtXN6dEQw47XuMQKDMiuOtOs+rJdJ4HZDQSjSLMWaONhKTk7bRu3Ar02lgEr99gYBiArEOMrMFV1SLoVlMQrUPw8ROGJYsp3PlYGhwZhZ6fkqKktRGNeUCFxbxZv4tJSttHq2YqjlsBKq84IT2V8Ygold48mw3g/QCG3j4MZ06yfxXT1u4S2s24u65GsQNlZPFFO5PpirzDTISvsgc/E3jwyAVRWoC+fuIVMmUjsDGOgj27aYiM8H3cpiZp3NzhuoByC4Te8jI2YeUK2b6YrTn97g9bCJw7L75C+UW8paGWiwpaKYDEomOCBR097hy9fo1dGkB80CEnSsXR/6Cg7PNpnSgC3G93BSU4nZSeSgOa0cR+Qd09oYG2JQYACulT/CQvkK5zN4PdHpqBGg0E1gwXK8WQSOVl7OygkAgLuxn+qXUPO13wvB/7rGFTHAX6FFq2voAv7Pdh7yf8T9Xly+Rf54BBodrpAeUW8BO36jhNqGJy+UeKRat7OPlaU8WuUqvnZzhxOgEKSwQLMuY4a/PzqCL3r30+VtczF9TflBqRIXsqLjyc6Th7itVG63zP18EWMPQNw6XLkuXHmLTX41dGtpC+KJzUZxpYbUI8BWqveXXuGIeDeK5Dc4s0MjGJiu82ca2/D8ZoFDa4aJIfpob9CJBGqUTOuSMABIFwGJNJXoA2AlTDbZPipVvnF5z8diSc8E72AAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAANAAAAEACAYAAADC7fjvAAAAAXNSR0IArs4c6QAAE95JREFUeF7tnVuIVlUUx5f0UoiIPdVLMxKGEBEp9NBDzjz0UFgkgUEgzhBdH6KLg4KGMySZUhQpRD7MJRhNiIos6KkZCbpARVA+2MWZCUnJhF4ToVzH2eOZM998Z69z9n3/D8ioc87ea/3X/n1777X3Pt8KwtVEgV4i6iOiHiLiv5f/NCnP1TOz8xXxT/X3k1fsH3dlQGr1rEjNIYv+MCTb58FheFK6GKZpImKY+KeCKyUfrfgCgOplVeAM19+axB0MD/dII0l4Y9kJANRd4L1Xfp0LOFUlAJIGfACos0jc60zNz200ZEz6FgapH8O6zjEGQEt14fkNw4PrmgKAaJnWAIAWC5PzkK3uAwNDug4KAaBrogCeOoSu/p7nhEgwzGsFgK4KgWGbHjx8F/dEg/Ppbv2nEr0TAAGeJk0bcyL0QIUCnG2badKC1DO9vb00MDBQ/HPTpk1tirL+7Ozs1fXRkydPEv99eprXTBtfXNjaxk8n8mDuPRBn28S7ChQ0e/fytCneiyGamJig8fHxAqgGFy+48nAu2ytngBrNe4aHhyl2cKqtXYHEvgmv7OdDOQMk6n241xkbG6O+PnGHJWyT/m7nIV1/P6+Zii4eB4ofEtUQ8M25AsSTljHduDA8MzOtpkq6VXm/j3sjhkg4pGOAWk2ovDve0IBcAWIaOIGgdU1NTSXd83Qa0q1dK8oPZNsL5QrQf1rk8J6ezOBRunBiYXBQOz+QbUYuR4C0h2+cnuZ5T64XD+UEqe4sh3E5AsREXF24qbl43sPzn1wvYVIhy5R2qACpVquOSvPRab7Uv9Xfm7RtLSJy732UsIJe6DIRnW0SkNIz5aPm/Pe50jGK8u9aVmPu8VAAKr9jQLwYYU6OayXx0E3tMLBRfixljoyMUIP1IVvuBXf03CdAQb9jIPfhmyKA09nCjJwteDqVq45YqHc5uKy7qMs1QAoanoNoDaWcKzJf4X//aSfqfJnopN7AASproHqnCZdrUq4AiurFHLzbgNPXuK4qsGKFq2ZiTHH1UpRGG/wkVrhQJrqDagBocRPiIZxwZ4KkDdq618kJWpsA8TCN4Ql6qNYpegAoCYAWpnE2X9NlAyDebclrLdGBoxTPae+bzsd/hEO4bgkHo8fRTQOkvcqvEzhf9wCga8pHlETQbS5G3+lgEiDtFX5dT33el+seuKrmwj1xPkMmqdvYkXQTAPFQjeGxclBGbaXhn+oPK9XTozYn6Ov2999/09DQkNYDKR6c03K8chNvKGWIdK62+wbn5uYWkhXc86k/OnU3uMcIRG0BMv4GT3Vcevv27Vb2oeluTcEwTpbCtrn1Sb2/gd/loAuzJlCtM3VtAGp0JLrqmAKGexQXW2ckW1Ny384j7X1cxE/1SgwTb3YV7BZfjqlWEDUFqHWywNeLOSQ7jNlGngvluCNbmjzwtfWJ48kfigZAapRcaAJQq57HFzjljx9JWjbXoZzuUJd1tTl80xmKqSEeg9RywVcMkRSgVu9RC2ViLhnGhdBAdBqRyXsk8HC9oQx1W7xdqCyfCCIJQI0TBqENhaTDE1Y3FPhNglIti3XheY9kOBRiD90SJNGruiQAiV4DpYIT6raYJusboX0QmISpCTxcf8jrZdKRRklP7RS3LkCN4An5U7vh65uKhAKP+VN5uWKbT+tQPxzLHyxNPijnn9d6UYoOQI12U4f8yaQEbiFuARI3IH4fNv+MJVOnJtn8St+2aeAYYsyxbvphOb8JteurieoAEmfcYnuDZ4tufskIKnSIWmaoFvkbCzzK6BYQdU0q1AEkegFh6GPi5eYMJiEyOS8JtayQh+bdNGsIUdf5UDeAxIulsX0qlT+dpNmnUBu3bbtimPfUQdTgHQ/LvrKrG0Ci3ifWTyUDXbztNhtM+bHDo4SU7EYpJRQ6fivfcgCJEgepCNsmIxVMK7dkSOwfkFVZGgzbO77/ezmAtF9Jkwo8ZYEbiGup2YZRbKxD8zr1GsR5yeuLOwEkOhjnaxNhnThtf8/dPM+LTGau2trk+vnYMqpSfRosHi9ZG6oCJNrrllq3Xg2AwU2K0th6vZ/B4YViF8cTvDrKL5CTf6nYol6oCpCo98nl5YNqbtR24dF3Y6mrP7VdFnX+qt8LN88u6oWqAGln3kLZgasrkqn7LJ6ONGWidjlqN4XqcbQfTOzGBpuLF3qhMkDa6z4h7sD1FVM1R6r+9GVPt3qr75cI0UZfNgl7oYXdCWWAtIdvqWZlfAUP9fpXQNgLLaS0ywBpDd/Q+/gPNiywo4DgHRAL86AyQFprP76P79qRDqVCAXFGrpgHKYC05z8YvqGppapAk2GcAkj7wFwuqetUGwn86q6AIJlQDOMUQBi+oWVBAT5BNz5e7EDRvPoZIO1Dc7mu/WiKidsSUEA4jBtmgLTnP6nue0sg7nDBoAKCYZw+QEhfG4wQigpaAUE6e5x7IK2zPykeWwg6ijDOmwKCYw5FGltrBwLWf7zFExU7VgAAORYc1aWlgCATN8s9kNYaUOpnf9JqAvCmjQKCM0IFQFp74JDCbhMSPBuTApJUNgCKKbKw1YkCUoC0diFgD5yT2KGSQBTQ/Q4p7oEAUCBBgxnhKACAwokFLIlQAQAUYdBgcjgKAKBwYgFLIlQAAEUYNJgcjgIAKJxYwJIIFQBAEQYNJoejAAAKJxawJEIFAFCEQYPJ4SgAgMKJBSyJUAEAFGHQYHI4CgCgcGIBSyJUAABFGDSYHI4CACicWMCSCBUAQBEGDSaHowAACicWsCRCBQBQhEGDyeEoAIDCiQUsiVABABRh0GByOAoAoHBiAUsiVAAARRg0mByOAgAonFjAkggVAEARBg0mh6MAAAonFrAkQgUAUIRBg8nhKACAwokFLIlQAQAUYdBgcjgKAKBwYgFLIlQAAEUYNJgcjgIAKJxYwJIIFQBAEQYNJoejAAAKJxawJEIFkgPojz/+oO+//54uXboUYThgsq4CK1eupHvuuYduvPFG3Ues3JcMQGfOnKF3332X+JuT//rrLytiodCwFFi/fj0NDAzQs88+S6tWrfJiXBIAXbhwgV544QWanJz0IiIq9avA7t27ad++fV6MSAKgQ4cO0XPPPedFQFTqX4EbbriBjh49Sg8//LBzY5IA6MEHH6RPP/3UuXioMBwFhoaG6ODBg84NSgKgO+64g37++Wfn4qHCcBTYunUrHT9+3LlBSQDE2Zivv/7auXioMBwFBgcHaXR01LlBSQDEWZh33nnHuXioMBwF3nzzTXr++eedG5QEQJ988gk988wz9OeffzoXEBX6V4BHIG+//TZt3LjRuTFJAMSqHTlyhEZGRgCR8ybkt8INGzYUKez777/fiyHJAMTqnThxgj7//HP68ccf6ffff/ciKCp1o8Dtt99Od999dwHOvffe66bSDrUkBZA3FVFxtgoAoGxDD8dNKACATKiIMrJVAABlG3o4bkIBAGRCRZSRrQIAKNvQw3ETCgAgEyqijGwVAEDZhh6Om1AAAJlQEWVkqwAAyjb0cNyEAgDIhIooI1sFAFC2oYfjJhQAQCZURBnZKgCAsg09HDehAAAyoSLKyFYBAJRt6OG4CQUAkAkVUUa2CgCgbEMPx00oAIBMqIgyslUAAGUbejhuQgEAZEJFlJGtAgAo29DDcRMKACATKqKMbBUAQNmGHo6bUAAAmVARZWSrAADKNvRw3IQCAMiEiigjWwUAULahh+MmFABAJlREGdkqAICyDT0cN6EAADKhIsrIVgEAlG3o4bgJBZID6Ny5c3Tq1Cm6/vrrTeiDMgJV4PLly3TXXXfR6tWrvVqYDECXLl2iN954gw4fPoyvefTapNxVfueddxJ/wfSTTz7prtJKTUkAdP78eXr11Vfp0KFD3oRExX4UWLNmDe3cubP44+NKAqDR0VF6/PHHfeiHOgNR4IsvvqD+/n7n1iQB0GOPPUbHjh1zLh4qDEeBPXv20CuvvOLcoCQAWrduHf3222/OxUOF4SjwyCOP0AcffODcoCQAWr9+PZ0+fdq5eKgwHAUeffRRev/9950blARATz31FB05csS5eKgwHAX2799Pu3btcm5QEgB9/PHHtGXLFufiocIwFOjp6aGPPvqoWBdyfSUBEIt28OBBeuutt4gXUnHlowCvBb300ku0bds2L04nAxCrd/z4cZqcnKSvvvqKLl686EVQVOpGAe51OG3NGdj77rvPTaUdakkKIOXf2bNn6aabbvImKiq2r8CFCxfo5ptvtl9RTQ1JAuRdVRiQjQIAKJtQw1EbCgAgG6qizGwUAEDZhBqO2lAAANlQFWVmowAAyibUcNSGAgDIhqooMxsFAFA2oYajNhQAQDZURZnZKACAsgk1HLWhAACyoSrKzEYBAJRNqOGoDQUAkA1VUWY2CgCgbEINR20oAIBsqIoys1EAAGUTajhqQwEAZENVlJmNAgAom1DDURsKACAbqqLMbBQAQNmEGo7aUAAA2VAVZWajAADKJtRw1IYCAMiGqigzGwUAUDahhqM2FABANlRFmdkoAICyCTUctaEAALKhKsrMRgEAlE2o4agNBQCQDVVRZjYKAKBsQg1HbSgAgGyoOl/mP//8Qz/88AP99NNP9O+//1qsyX7R1113Hd12223EX2h1yy232K8wkhoAkKVA/fLLL3TgwAEaHR21VIOfYjdv3kwvvvhi8eVWuIgAkIVWcOrUKXr55ZeL7+1M8dqwYQO99tprXr8ZLhRdAZCFSLz++us0NDRkoeRwinziiSfwzeiEHshKi3zooYfoxIkTVsoOpVCeD01PTwfxNYs+NUEPZEF9bly//vqrhZLDKnJmZoZ6e3vDMsqxNQDIguAbN24ssm+pX5xlXL16depudvUPAFkIP89/eB6U8rVlyxb68MMPU3ZRyzcApCWT7KYvv/yStm7dSufPn5c9GNHd7733Hm3bti0ii+2YCoDs6EqTk5N0+PBh+uabbyzV4KfYW2+9lZ5++mnasWOHHwMCqxUAWQzId999R5999hl9++23dPHiRYs12S965cqVxS6EBx54AOs/JbkBkP22hxoSVgAAJRxcuGZfAQBkX2PUkLACACjh4MI1+woAIPsao4aEFQBACQcXrtlXAADZ1xg1JKwAAEo4uHDNvgIAyL7GqCFhBQBQwsGFa/YVAED2NUYNCSsAgBIOLlyzrwAAsq8xakhYAQCUcHDhmn0FAJB9jVFDwgoAoISDC9fsKwCA7GuMGhJWQALQDBHVvsNobGyMBgYGEpYMrkGBqwrMzs7S2rVrteRYQURTRNRXd/fw8DDt3bu37jb8HgpErwC/WFL3HeEAKPpwwwHTCoyPj9Pg4KBOsbMM0NiVXqt2bNbX10dTU9xZ4YICaSsgAGiaAeJx2XCdJACoTiH8PhUFRkZGiKcsGtc4A8S9D/dCXS9+VzK/MxkXFEhdAR6+cS+kcRUAcQKhdmwGgDTkxC1JKMAZOM7EaVzD2gBxYTwH4qEcLiiQsgK6a0BENMgA8RqQ1tiM14F4PQgXFEhVAUECgSXoZ4CKzkVnLQjDuFSbDfxSCgjmP/zICgWQViYOwzg0tNQVEAzfOMtQDOH40h7GYUdC6k0oX/+EwzdeaS2ycOrSGsZhPSjfBpa658LhG2+WK3YiqAvDuNRbCPzrqoB0+FZMgkolaq0HFeM9LKqiKSamgLD34W0KI1WAtOdB/CCONyTWgjJ2R3J8YV6mYvhWBYj/rTUPQi+UcWtL0HU+usBHGATXwsitPIQruNBdVEUvJJAbtwargOTsz7wTRfZNOVQFqOBC53gDeqFg2wQMEygg7H142LboqGongES9ELb3CKKFW4NSQHBsQdndf2XHzqKxXieARL0Q34zF1aDaBYzRUKDB0I3BYYAWXcsBJOqFAJFGxHBLMAo0gIdtX9L78H8uBxD/TuugnVKF14Y4tY3jDsG0ExjSQYEGKWsupdj31knQbgBxL8Rp7dpXXpUh4jNDDBMuKBCiAsKkwbJzH/WLbgCJeyF+gOEBRCE2HdjUEJ5le5+6IZxSXHuPHIZzaKQhKsDDNt6qI1wsZVc6Jg7KPtb1QEWnMr82JDrLzT0Rp7jxMsYQm1Q+NjVMGLBAS9Z8pHOg8v3i+ZB6GCnufBpraJ4Kz/dUze+YdavepNMDLYzMpEkF9SDOEIXWtNK3p8EiaVkULXh050DVnkjrBSTVEGFIl36jDcFDHrLxfEfztVSdTF44qqDjj6QHUuWJ1ocAkk4YcE9bBVokCspV1yYN2gzhys+KM3OdQMLCa9tmg+cZHB6uab5JtJtgYniaDOGMQsSFqaHdpk2bsIsBPGgpwNBMTEwUaekGqelOdXRd6+lmVJMhXHVOJNqt0M0YhokTDgwTvsxLqy1lc5OChnuaFvObTnotOt8jFbQtQEUn0jQ7VweT6qHU1iD+2dPTg61C0ihHcj+DMTc3V1jLf1egGOplqirwOg/DIzqKamoOtGRKc+Uk6/Yr/6n1nRCRxBNmpquAEXjazoEAUboNLGXPGiULlhPExBCuWjZn6DjVjS3ZKTfDOH0TrfHouGgDIDUvwpBOJwK4x4UCxsFRRtsCSJXPvRBActFEUEcnBXi4xokCrW/LaiKhbYAAUpOo4Jm2ChhLEtQZ4gqgMkhqjlRnG34PBaQKMDj8yl2tLziVFt7pftcAlUFSwzs+Z4SEg4lo5lcGA6NgKd5V7fryBVDVzzJMooN7rgVDfd4VUNCcbLsIasKTUAAq+8IwqT/8/z2lHqr6OxMaoIxwFFCTff6p/rB1vD2B/91q14ANN/8HI/G76N4RfGAAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQAAAAEACAYAAABccqhmAAAAAXNSR0IArs4c6QAAIABJREFUeF7tnXmYXEXVxn+nJyEgkExP2FSWBPhYZBEQZBcCIosSJQIqggFZVAQk0xPhQyWJ4AKZngCCgohhFQwIGkRREMIi66fsyM6wqEhId4ewhkyfj5qeiVlmpqtu3627q55nnvmj3zp16lTd95576lSV4EvsFlg1rxsNgz2BHYDNgXWBLNACvAm8gvAUyt9FuL3QLn+OXUnfYFNYQJqilynpZFtej1Y4HNjJUaUCcAXChcV2ecSxrod7CwxqAU8AMUyOti49UpXvAmNqbU7hogxMK+TkpVpl+freAp4AIpwDo6br2EwLP0H5dMjNvC3wrUJOLgxZrhfXZBbwBBDRgGc7dV8yXIYyOqImjNjzijk5LkL5XnSDW8ATQAQD3JbXLyhcFYHo5UUqs4od8oVY2vKNNJwFPAGEPKTZvH4GuD5ksdXEXV7MyWHVQP53b4FlLeAJIMQ5sVpeN+qB+4BRIYq1EiVwWiEnp1qBPchboM8CngBCnAqtnXqTCJ8MUaSTKBH2LbTLjU6VPLipLeAJIKThz3bpce8H/H4SkrhgYpSHix3y0WCVfa1mtIAngDBGfZau0PYSLymsEUTc6h+AMaNghRZ47W14cl4QKZU6qpxQ6pBkiSi4+r5mzBbwBBCCwdu6dJIqXa6iDt8SDtsctl5r6Zrz34Vrn4SfPxCIDJ4t5mRDV108vjkt4AkghHHP5tWk55qcfquy8Wg4ey/4+Ieqw797G/z0b9VxSyJUmFBql+vcanl0M1rAE0CNoz6yU7drkd7Iv1XZdDW47vOwxspW8F7QmXfDj++2x5t9A8WcHOpUw4Ob0gKeAGoc9mynnoLwA1sxNx8C2yzj8tvU/eoN8NsnbZAmEMC8YoesZon2sCa2gCeAGgc/m1eT9GOSf6qWr28DP9y9KmxAwLNF2G6mQ90yWxQny6MONTy0CS3gCaDGQc/mtRtYz0bMXRNhkxp2Bhw2G254xqYlEOELhXaZZYf2qGa1gCeAWkZeVbJdlG1EjG2Fv33VBjk45sIH4aRb7GQITC7kpNMO7VHNagFPADWM/KifajbzNuawjqpljzFwzYSqsCEBc16ECddYy/hBMSfmDAJfvAUGtYAngBomxyo/1NWHj+BVGxH7bgBXfNYGOTjmnn/Cfr+2lnFGMScnW6M9sCkt4AmghmFfc7quvDDDGzYizJr/jV+0QQ6Omf00HG65z1CFKaV2+X5tLfrajW4BTwA1jnA2r68Dq1YTs9Iw+OcJ1VBD//79O+Es24wD5RvFDjm/thZ97Ua3gCeAGkc4m1eTp7eNjZiLPg0HbGyDHBizw8XwlFXEAcoZ9po/SW4O3pqv2QwW8ARQ4yhn8/pz4GgbMbV8BlzxKBzvcDh4Gc6cn5OTbPTymOa1gCeAGsc+m1eTcnuZrZiTd4Rv72iLruBemA97/aqyU9CpCHNUOKI0SUyugi/eAstZwBNAjZNiZJe2tShOG3h/OA6+vrVdwy++Dl+ZDQ9brTUMKLNb4eJSTqbZtehRzWQBTwAhjHa2U69EcIrxf3lz+M7OsNYQm4KufBym3g5z36pdSYWpngRqt2OjSfAEEMKItuZ1nIBljt7SDR64KXxiHdggCyNa4D9vwt9fgT88C/94LQTllhbRrWWOKE2WOaFL9gLr0gKeAEIatmxefwvUmOoTkjJDi/GfBLGYuT4a8QQQ0ji1ztCtpMwDIYmLQ0y3ZhjnA4RxmDq9bXgCCHFssnk1y24/DlFk1KK8NxC1hVMu3xNAyAOUzesVwCEhi41anPcGorZwSuV7AohgYLJ5NWfz7x2B6ChFem8gSuumVLYngCgG5gIdnn2Tq9Hog4ICB5Yz/E3K3BrG9eMCF5czTPOxgSgmRvpkegKIcExau7RLlEkRNfG4ZDiqMEl6jwttnaFjKDPx/QGdGkJ73hsIwYj1IMITQMSj1DpDJ0iZM4DQzuoXOKewgMlMlYXLqt86XXeXDOb0wDG1ds0nD9VqwfTX9wQQ0xhlu3QycALK2oGbVGZlMuTntcuQm4JD9wZ88lDgIUt7RU8AMY9QW5cerMoElH2Q6rcIK9xvrhvvgV8vyMlTLuq25nWK/yRwsVjzYT0BJDjm2bN0S97jI7SwDmVaEVpUeEuU/5ThmfK7PLjgFHHaaLTcJ8EMHSPKTJSAB5IvJdEvFyY4X6Jo2hNAFFZNmczQPwlStLuwt2+mLGIMmd64h9UR7REO0Qu9sst0M4zutK+meAKIcCakTbR5WMJaLgQS8waWILTDwwh2RjxO3QJzynAbGeakjRA8AUQ8+mkTX8/eQIgxjcSGJW15Fp4AEpsKyTYcpjdgJnUhJ0dE1aMwlzaj0tFRbm+eBRkuSdoj8ATgOHKNBI/AG5hWysnFYdqoLa8zFYyr34glsc+ofmN6AmjEaeXYp9a8Hi4wJYzv6bCSh3o9lPBWLxwtEis80axLTwCxjnV6GwvdG6jhrIEmevgXT4iwiNN1hnkCcLVYg+NDDLQFfrNlu/TWkPIW6mm0EjmuzRNAPU2RmHQN+Q3s9J3bpA9//8g62SqM6eAJIAwrNqCM0D8JLJKHQvQ+6nlEuos5GRtXBzwBxGXpOm0nzOVCqlxUks3r+5/CvsQZD/AE4OdbVQvE4Q3Usty37kjYZR1YZyTsHHyvZVU72ADMRS53vQzm/50v2dQYEBObF+AJIPAYNV/FMBNylnzL9XkZz7ta1Dz4sw8G8z+NxZDAlY/BGb1HtriVqJOr+rXxBOA2Lk2PDt0bKHOE2cQj9B5iYl1O2hHMXz0UQwTjZ1W8AocSixfgCcBhRDz0vxYIOWBXMqea2dp39kEVl7+eShAS0DLjor7FyRNAPc2ilOka8nKhVe/Mg28IoB6LiQmMv9pe8ziCgZ4A7MfDIwexQMjewJB2fvCo9H7z20wQEw9wiAlE/hngCcBm1DymqgVCXS4cpLVDNoNz6+22hWX6Yj4FtvpFVXP2AzwBWJvKAxO3QMgBwuX6Yx5+QwL1Xtq67HtQzEmkL+lIhdt30yMbyQJReQP17v73j7GJA9jmCGiGsVGeGeAJoJGevBT1JQpvoNCeog7WoIpLHCDqlQBPADUMpK9a3QJhJg95Aqhub1eEJwBXi3m8swXC8gY8ATibvmoFTwBVTeQBYVmg1uVCTwBhjcR/5XgCCN+mXuIQFqglecgTQPhTyxNA+Db1EqtYIOgngSeA8KeWJ4DwbeolWlrAEEGmzD8UVrSp4gnAxkpuGE8Abvby6JAt0Nald6uyg41YTwA2VnLDeAJws5dHh2wBlzMAPQGEbHzAE0D4NvUSHSzgCWBoY/lEIIfJ5KH1ZwFPAJ4A6m/Weo1Ds4AnAE8AoU0mL6j+LOAJwBNA/c1ar3FoFvAE4AkgtMnkBdWfBTwBeAKov1nrNQ7NAp4APAGENpm8oPqzgCcATwD1N2u9xqFZINulz6OMsRHoE4FsrOSG8YlAbvby6BAs4DcD2Z8M7BOBQphwXkQ6LBD0we/X3nsA4Y+j9wDCt6mXuIwF+g4CORzsXP3BDOgJIPyp5QkgfJt6ieaerxk6hjIT359gU8MyiCeAsCz5XzmeAMK3aVNLjOLB958AMieqSeUJICrLNplcc/pvJsNEBePqR1K8BxC+WT0BhG/TppG4xNu+5u97G6N5ArCxkhvGE4CbvTw6ou97G8N6ArCxkhum4Qlgzem6cs+KjHpPWan8Hi2ZHnqGD+etFeYz/19T5S03czU3uu8MvylRuvlDWdgTQPjzr2EIoK1TP1IWtkXYUpRNUTZAWBtYeQizLQBeQnkW4R8ID/W0cP/r35Knwzd1/UoMaxmvVgt4AqjVgsvXr1sCaJ2hrfSwvwj7AHsAa4VonpcE/gLcuOICrm9GTyHKaH7QcfIEENRyg9erOwIYldfPtwiHqDIhfHMMKLEHmEWGK4qT5IaY2kysmZgf/G6BdxQ2semwJwAbK7lh6oIAzHf8wgzHAV8Dxrp1MVS0OcP+/NICzmWqlEOVnLCw1rweLjCl1mw9m26oSQ7KcIm59trvBhzaYs29F2CqDmtdhZNF6ABG2UyuWDDKKyJML+SkK5b2Imok7re9wsWlnExbsjueADwBDGiB1i49QhQzWdaJaP6HIfYJk+payMmvwxAWl4w0PPj9fW1GAjjuT/Crx+xGWzOMNZ6SHdodlbpPgNGdukk5QyfKp927k1ANZZbxUgo5eSkhDayajXUZT5ijwhHVJm9bXmfaLivOPgh2SfPrwGoUYKtfwIuv24GbigCyeTXf+OcCw+zMkypUCeW4YodckSqtTOJOXqdIJUXX6uCNGvTvNm5+//e9jRyXK8NP2hHMX72XNocPx2JOIn1JRyrcZaBa83qhwFEuddKIVWVGqUPak9YtTW7+ULZwIQDz9jdeQD0X8+Y3HoBtaXgCaMvrOgrmrbmrrVFSjxNuUOHQ0iQpxa1rrG4+mDf+tFJOLg7aT7OJSDLcalN/3ZEw+2Aw/+u1jL8a7rT8UBS4uJCTI6Lsa6IeQGtetxa4Blg/ik5ukIUPrwptK8LKK8AwgUUKbyyEeW/Dy69D9/woWgaUB8tlDpz/bXk2ohaWEhujm8+Sy3i19s0QlpR53lZOPXsB5sE3BGBbjJ2XXTWxrWuLS4wA2vK6g8L173/zr2ar7FC4kSNg3HqVINHH1oIt1oAWi9692wOPzoX7/w1/fQn+0g3vLApDo14Zz4oyvtAhj4cmcQlB9eLmV+u7y0qAkVWvsQCXb3/Tz6gDgKYNi0ek2vC5/z6qUz+WgT8hjHavvXSNCRvD5zeBfTeoVVKlfk8Zfv8MXPME3PBMKDKf6xH2fr1dwpEW/2683sBelG8ilzhA/4jUEwmYN79Z+rON/Pf3Merv/0QIYNQMXT9T7v3mWzfo47VCC3xjGzhqq4qLH1V5tgS/eAAueKDGFpSHFy1kjwWnyLxaJMVx6Ea/fmG6+dX67PoZ0C/PxALO3TvdS4Nn3G1/AvCSdorD/Y+fAC7Q4dk3uQNl+2qTYrDfj9kactvD6h8IKsG9nmHu6ffAFY+6112ixp+KOTEbl5xKzIduRP62H6zzfanIM52M0wc2RLDuqEpwcCez/zPB8lLf+v5fX7YP9g2kbhxv/9gJIJvXy4EvBxmfbT8Ip+0G238oSO1w6tzSDafeDo+/FljeucWcHG9Tu1G+7236ajB9XoDxDKPOVbBVKTGcwhG1rKy4KB5bDKCtU3MqdLoo1489blv4/ieC1IymTu5mmPlwMNkKR5Zy8stB34QzdEymTFyHbtS8jBfMCgPXqsULCFOPRGUJc4rtMi4uHWIhgNFd+vGycm+QTv10H/jiR4LUjLbOhQ/CSbcEauOdnh62fP3bSx86EuMynnO2XqBeBqwUJCAYsKk0VuvWDOOqpU+HqXgsBJDN6x3ALi6Kj1wBLhkPuwUOFbq0FgxrVgsmzjZL/o5Fub7YIeObzc23sVLvp4AyE2V3G3wjYaLe+juQrSIngCCuf+uK8OsDYLsPpn94Td7AF66DsiMLKPxO4LMx9DBVbr5Nf5sxHpDEw2/GIlICWPksXXOFHp4DrGP2GYHfHpjupZ1lJ7HJFzhsts3UXgJjCCNC68e5jOfYcyt4zN6RlU4Rgbq1zBGlydFd/jGU3hFOQWjL69kKJ7gY7sL9Kok99VZ++RB0mFMEky2JLeNF1e0GjwmUNMPWcX7zLztOkRFAX8KPUx785B3gf3eKaipFL9cEBU1wMIHScA/+kjZs5LhAHOm+iXgAbXmdoXCi7cPwiXUrrn+9l3GXw0OvxtMLs1usnGFakm+QeHpaaaV3mVCY2EgBwrgy/gYbp0g8gLZzdKS+h3kMRthOkDsOg81Wt0WnF+e64ytAT1K9jBegP85VFscHhN0bgQyS9AIiIYDWTv2WCGfZjmzH9nDKzrbo9OMm/wUueih0PRvaza/FWr2EYMoixpAZOpNQYbUMTLdtz2Tl2WIX45TdROwvSU3SC4iGAPJ6n8B2NoZbc2V4+GgYnrFB1wfm1bdgywthoblRoPZSd8t4tXc5OgmOQcXuYk4CHUOfzas548A2rTn2BKB+C4dOAK15/aiAdSjMpPiaVN9GK9+/A866P3iv6n0ZL3jPo63p8mDW8mZ2JJreQ1ai3HI9mFWjIIDvCXzfZhjNIR5Pfh1GtNig6wvzypvwkQucdfZuvrPJ7Cu4bjuuZUdegGSmRLyA0Akg26l3IVid3fr1reGHsW17sJ8oYSG//keY9Q9LacqDxQ7Z2hLtYQEs4PhWDuz+96vm2J7xAmLbBRjJJ8DILm1rUawPvbj5ENgmzCs9A0yKKKvc/DwcfJ11C28VczLUTcbWgjxwYAvE5f4vJoDKeYcuW5xj9wJC9QCyXbo/ilVS7Maj4e6JjT9VNz4f5r5l108ps1Nhstxth/YoFwu4uv9hLc25XHxi+hO3FxAqAbR16mkqfNdmYI79GJy+mw2yvjHH3ghXWR4JqvCtUk7Oqe8ep1N7R3e8Zvc/sBdQz+cBZDt1NsL+NlPgV5+FfUI6yNOmvaQwVzwGx//JrnWFX5ZycqQd2qNcLBC3+7+kbmn2AkL1ALJ5NSffWj3WT38DRq/kMoT1iX26ANvbX5txTzEnVgHU+rRGMlon5f4v4wVY331AjF5AeAQwVTPZVbFKfTGHNz5Y95eA2U/mdX4Cb75ngRfmFttlDQukhzhYICn3vx68gNAIIHuWrksPL9iMi7nA4zeft0E2BmbcFfDQf+z6stICVv7XVLEMG9rJbHaUy8UjUSXkuFyB1jteMXkBoRHAqC7dNqNY5b4dtgWcvVfzTMtDfwd/sNwYrcqYUodYEWnzWDB4T5N2/2vyAjKMjXqnZ3gEMF0/mclwk81QtW8P322gzT/V+nziTXDpI9VQld8VtirlJPytRHbNNxwqDe7/4liAw0WocXkBoRGASw7AqbvAiR9vuLk2aIe+exv89G92/fW5AHZ2skWlwf1fUleX1YjeF0LEXkBoBNDapQeIcq3NwDTqBqDB+j71DjjH6uOo1wXYtdghd9rY0WOGtoCz+19mXNRn87nGAqK+Ijw8AsjreIHf2UzKZvMAvnc7nPd/NpYBybBTYZLPBrSzVhUCyOuU9yf4VEtZoSX/VGsvTV5AaATQ1ql7qfDnap03v5u7/b7TRDGASTfBJbYxgMohkdbbqW3s3ayYtLn/i2MB5mgzsL4HMUovIDQCcLn9Z+KWMOOTzTMtvzK7cuW4TSmXWX/+ZLFPGrER2oSYNLr/aYwFhEYALgb/5FiYdUDzzMo9r4AHLPMAhi1g1blT5Y3msU40PU1T9H+gHrregxhVfkJoBIC5+vsNFtoM5/qt8H9ftUE2BmbMefD6u1Z9KRRzMtoK6UFDWiCt7n/avIDwCABwCW50fxPMiUCNXp4rwbaD3gW8dO8V7i/lpIkWSKMZfRdv1GiQ1LVcjl5KJMeGhUsAnfoHhH1thvXqCbCn7ZGJNgJTijEnApmTgSzLpcWcNMEpCZbWCAhzfLBii/4P1B3rl+Z/r5L7mQjzUIooL0oLj82bJLbnTi2nQtgE8COEk23G7VvbwZRdbZD1jTnhz3D5o3Z9EMgVctJlh/aowSzgsv02qm9r29FxJKsBxQq8qnCjlrm2NFmsluL7BYVKAK2dOkGE39h0fovV4bbDbJD1jdn85/Av25Ce8Iliu5ir1H0JaAFn9z+Bc/iW7Zq1F2BhExGeVuXsYk7Os4CHez9t323Ar9g0bDCNchvQYP29/UX43DW21uC94jqsxMFitaXaWmqTAR2j64m6//1DM6pLf5RRO8/ZejiVBwVOLnTIkMfRhOoBGOWyeTU5bx+zUbTRPwO+dRNcZpkABNxYzIlV/MTGts2KcXGpk3b/zRj1JdBdCKwXxZiJ8v1Ch0wZTHboBNDWpaep2p0LuPoHKvcCNGIpvgPmQNBFZbveqXBiqV3OtkN71GAWyObVhMusStIE4OitWPVpQJBwWbFdvjLQb6ETgEtGoFHozD3gqK2C9y2tNc+8G37scL5vOcMG8yfJc2ntTz3o5brRppaLP2q1R2uXHiGK5QJxra31bjKbVeyQLywrKXQC6PsMeBjYwkbtsa3wtwZLCnpjIWxxIcy3S/4xZrq1mJM9bOzlMYNbwMX9j+vEnYG0bevSfVSxXxwOb9DPK+bkuCXFRUMAnfpthDNs9W603YFTboefWO7+MzYS4ahCu1xkay+PG9gC9eD+r/wDXXOFFfk78KFExlH5WrFDft7fdiQEsMp0XWN4Bsvs98rNwPccDsYbqPdicv5N7r91UcoqHF3KSXzuoLVy9QN0Xf5Lyv3P5vUy4NAELfuOKpv0HzsXCQH0fQacD3zNtqP7bQCXf9YWnV7cZ2bBXS+762e2fJYzTIv6DDh3zeqjhpP7D4ks/yXo+i81iKLMLHRI74d3ZATQ1qWbqWKZA1fRb9on4Pg6vir8tDthxn2OD4wZgf/Grf3twI7m64fXg/vfltebFfZ07eKWa8C+G8BH1wCzcvZ2Dzw1D257Ea5/2lVaBd9/9mRkBNDnBZhvjaNdVLzqAPjUWJca6cBe/Q/4WnhhndgviUyHFYNpUQ/uf9sM3VHL3OXSQ3N/xtRPwOc2GrzWsyX44V/huiddJPdiewOCkRLAqOk6NpPBaWnL7BD83UEVtquX4pjxZ9st7w1YWqou3P+8nq1wgmWX2GltuGR/+9uzzrwHfuxEL8wv5qQ1UgIwnW3t1FNFmGbbcYNbZ2TlwBBzg3Day/3/hoOvdVryW+yDWX6AeSKoMgnqwf13yfc352XcdAhkV3Sb/d+5DX5mefq0kSzCvpETQO+nQKc+gOCU7rP2qnDpeNhqTTcjxIk2b/6J1wd4+AMo6YOEAxutHtz/1c7QjXuG8YTtsF82Hj69oS16aZy5h9LcR2lZfhQLAYyarntkMvzFUqnFsFVWgAv2rQRA0lYc9/mHpb73BpaxZJ24/19QuMpmEmz/Yfjjcvl6NjUrmIsegsn2T9qfYyEAo5jjQC3VY3OLkLlNKC0lULQ/XOV9kLDPnnXi/n8HON1mCkzbFY7fzgY5MKbwNmz4M+v6z8dGAEalbF7NYQXjrdVbAvjJMXD67rBRW5Da4dT5+ytw6u3B1vl7NRAeRN0+hYbQvOm9gXpw//vm/TnA8Taz8PqDYee1bZCDY7abCc8WrWS8HSsBjOzSthbF3HqzqZV6A4BO2hE6doCWGDVf8C5MvxfOdUjvXU515e7iG+zSOop1pcytQFgHojUtETh6lYkk//R5v78QONJmzt93BGyYtUEOjtn3Krj3X3YyYnyMKgq1nqlbSUvvAxA48XfNleHYj8HRW8GKw+w6GgRltvRe+GAlsuqwsWegppZy2c2bizITHW6tqap+MwYJXSLrSW79zXbqBQjHVB1E4LZDYYsal8AdjqEvx04Axgh9QUFzUklNj+/Kw+FLm8GBm8DHQ9xaccdLcM0TcOVj9vv5Bx1cZV65hU/NnyRmA8hSpdeFVWai7G4zOSwwTeMNuLr/UV+yOdTYZPP6Y+Aki/HjF/vBhE1skINj1v8plN6xkvFaIgRgVGvr1L1VuB4YbqVqFZDZSLTHmMr307YfBLOMaFu658P9/4I7X4ZbuuGfC2xrVsUZA+9fyMk9QyEdXdmqjQINHyR0tFli7r8ZrGynHotgdUbfoZvDOZ+yGeKBMWYfitmPYln+lhgBGAV7D3Bo4RqU0FN+Rq8EJqHiw6vCah8A4y0My1Te6G+8B3PfhH++UQmWWLKlpU0Xw54vZzhwoDf/QIIi+Cyoe29g1Axdn0WMyWT4kAqjUUYKjEAQlGNRWnuTqfr3U/z36OylTJyk+987z7t0N1Hm2EygEcPgsWOgzTEJqF/2sTfCVY/btASiXJIoAfSyY5dugWI20FodIGLXtcRRd6lySP+WSxdt+lzbpgsStnbqegjmQdnxfc/QnCm5Ze/DXkPp54Mk3X+j/tpdutKbylu2XTl8S+gKcHfmrS/A563O5F6sydcTJwCjympn6KqLhvNLUQ60NVJacSLMLLRXtloGLRF4A+Ylmbrtxq0zdKtMmQkKnwG2Dmqvoeqp0INyscBvizn5fRRt2MjMduqNCHvbYA3mR+Pgaw4WMZuCDrgaXnb4fC33sGEqCKDfKNlOPRnhR7ZGSh1OOL7YLueGpVdDBgmn6rDsKhyFYG5A2iEsW1nK+TfKZS3CRa/l5CnLOqHA2jr1KBXM6b/W5ds7wsk7VofPeQHMCdQvvV4duwTi9mJOdksVARjlerdN9pBHsOi6U4cjAyvcJGU6ipPFnIUYenEMeNm0H3uQsHWGtmbKnKiVhJgE07kWm+fKTJmz502We20MVjPmHB2Rfa/3lKxRLrK2XrNyaO4BGy+/5H3vP+GyR+FXj7lIrGC170KU1BFAf1fa8nqfQg1Jke5GCVBjLsKpxXYxpx9FWiL4LIgtSJjt1FMQ/hdYJVIjBRGuXJGB0+d1iPVmnSDNmDqteZ0qMOgZ/dXkbrYajDYHgrwHz5fgtber1Rjkd+XJYof0LjamkgBc13gDmqGWau+ZE82HLeDHc6eK7cVftbS3uG49BQnb8npQGU4XGOJIi1DMUrMQgdMKOTm1ZkFDCZiqK2ZH8jRKjcm+NWt5WDEnl6eXAPI6ZaksuUGWd2o2g6MAcwkjyvkLF3LuG6fIXMfqocEj8AZCDRKO+pFmW0YwQ7X3O79+ivJwWZk0f7LcEpXS2U79EsKvopJfTa4K15Ta5aB+XCo9AJcdXtU6HMbv5hvfLFWWOuSSMOSFJSONQcJsp+6LYPajRXLVVVi2G0qOwqmlnJwWVVvZvP4EWOp8/qjaWkqu8OKwRWw/99uy+P7O1BGAk/tfSQAxB4+a75ma0oqXGQDzdWV2Vd/Ie1xfPFlejGWAAjaSliBhtksno5wZsBupqqbwmxFlJv5nsrwZhWLZvJosWLP8GVcpqzKu1CG3L9m/BM7BAAASSklEQVRg6gjA5W53k/JazMlYpuqw1lXYKSNsq/BRhU1FWN8yw9C48s8qmPyphzIZ7i9MEodLveIav6HbieCzwClImO3S83qz8xqrPNCyiC+9dpK4H7lZzQ5TdYXsqswG+9yAaiKH+L1MmfHFyXLDsphUEYDT27+ylDG1lJNBzxtcc7qu/O4wVqfMqAyspBlapEyPtvCWLmL+KhlefbldgsZSaxiP6KomESTMduqvEQ4Os1cfGF45Dm6T0ZWU7g+uUjkjb6VhkMnAuz0w/x149S14YX7lmOxH5oa6j6O/O//MCBPmtYvrge9W5sh26aUoh1mBg4FeVOWwZd/8/aLSRQDLBv+qdDip212CjUN8tSLwBgYNEmbz+lsglCtdzEnQe28Ae6wXfHfncyUwZzX++Tm40ek86iHHpyBlPlOYHI1n2JbXdoV8BDPk6oUtHP/miTLoLV2pIgDH4F+iO7wiGKzQRUYdJMzm1ew7WxxRDtKBFVpg4haVbd1hHwA7720wZzde+gg8OS+IdkvVmauwVyknD9UsaQABo2fopuVyb45ADScCLhb8BMrpxQ6pekldaggggPt/RCknF0cxGI0msy9IeHiYpxChPIKwf1BbjWiBE7aDb2wDrQF3vrm0bS5uMRe2PlrD4q0oT2da2O21SfJvl7ZdsKOn6/Y9GY4S+DKwkktdc+OxlrnYZbUqNQQQKPjnZJ3mBkfxWRDUombP+yk7wVoJ5AWe/wCcfie8ZVK5AhRRbil0iPP1Xs5NHaPDs5uwz/urUbuKso3Chgpr9e2QLAMFlBdEeESVu8st3Dx/kjh/9KSCAAK8/YcM/jkbu4kqRBAktLbeuqPgh7vBfgHPvLduqArQ7Jg75Vb4/TOBJfZeqxW4di0Vp2qGqWIIIJSSDgLwwb9QBtNWSBLewGc2rJx0E4e7b2uHs++HaXfYopfGKUws5eTSYLXTUysVBOCDf8lMiAiChAN2xNz4bG5+TmMxt+se/QdY2OOs3esCmxdy8pJzzRRVSJwAArj/PvgX8gSKIEi4WMNTd4UTU76n8+6X4dDZYE6BdirKVcUO+ZJTnZSBEycAH/xLx4wY6rNApff8OOdy6i5w4sedqyVSwVzyeuBvYMFCt+Y1w+dLk+Rat1rpQSdKAAHe/j74F/HcCStI+K3tYMquESsbsnhzIvSBro+y8HCxXT4asiqxiUuWAHzwL7aBdmmo1iDh5zaCX8a5zcWlc1WwJmnoxJucBR5bzIn9jXzO4qOrkCgB+OBfdAMbhuReb6CHOxD7Ayw2yMKtXwZzs3O9FnO7rrll16E8+/4BGwkvbjpouwQ0MQII4P774F+wMQ5cq+8uR5NHbr3VetYB8MmxgZtMTcWdLoEnHNKHVfhqqV1mpqYDlookRgA++Gc5QgnCsnk111mZa62sypEfhenR58hZ6VIr6M/Pwxevc5JyTzEndXOQbX/PEiGAAG9/H/xzmovhgLNd+jhqd5PzyBHwwJGVLbuNUo75Q+WOSNsiGXaqt7MkkiEAH/yznVOJ4Vpn6O5915hb6fC9XWBSnSz5WXXo/W15/3gNdnbL9ftJMScn2MpPAy4RAvDBvzQM/dA6uJxbZ9J7//E1MDv8Gq1880+VW6Ity7+LOQnxnmrLVmuAxU4AAdx/H/yrYYCDVs3mtdv2YM96XPO3tcv//Rs+daUtGlTYvdQut9nXSBYZOwH44F+yA27Temtetxb4uw3WYO49HP4nDXf92CrsiNvnKrjvX9aVflDMyXet0QkDYyWAAG9/H/xLYIK05vVEgRk2Te+0Nvw+1NMAbVqNF3P+3+EUq8u9e/W6q5iTnePVMHhr8RKAD/4FH6kYa7oc9XXabvBNc5l3A5cX58NWF9l3sLjg/WvNp4rjrgJ7+WEiYyUAH/wLc+iik5XNqzlZxiqd568TYdPR0emSFsm7XQ6PvGqnjcCOhZzcY4dOFhUbAQRw/33wL4G5YW7xlTJFm6bX+AA88XUbZP1jTroFLnzQrh8CxxRy4nQVuJ3k8FGxEYAP/oU/eFFIHN2lHy8rVldm770+XPm5KLRIn8yrHodjb7TTS5V8qUM67NDJomIhgABvfx/8S2hetHXpwar82qZ5s9ff7PlvhvLwq7B773261Yu5VqyUkwOrI5NHxEMAPviX/EhbauCyAnD2XnDYFpaC6xz2xkJY91zrTtTNvoBYCMAH/6wnTuLAbF5PB75jo8jVE2DPMTbIxsCMPQ/mv2vVl2eKOfkfK2TCoMgJIID774N/CU6KbKeeg3C8jQo3HwLbrGWDbAzMNhdB9/zqfRF4tZCTNasjk0dETgA++Jf8ILtokO3SC1COsalz18TK5Z3NUhzOCJhfzElrPdglUgII8Pb3wb+EZ002rz8HjrZR4+6JsHETEcAul8Ljr9lYhteLORllhUwYFC0B+OBfwsPr3ny2U89DONam5pxDYcs1bJCNgdluJjxrkyGhzCt2yGr10OtICcAH/+phCiytYzavZwDfttH8dwfBruvYIBsDs/H5MPctq768UMxJXYRHIyOAAO6/D/5Zza1oQS7HgP18Pzhwk2j1SYv0njKsfpa1Ng8Uc7KNNTpBYGQE0OjBv/6js83YibB7rWMoitl/Txluo0x3abLY7z+rtfG++q15NVeITxewcl+/szPktg+p8ZSLea4E2/7SUknlj8UO2c8SnSgsEgII8Pavm+Bf3zVaU2MYtW6Fi0s5mRZ1W63TdXdpYQrqRmQHbQIX1MU0r92Cf3wWvvw7SznC+cV2+YYlOlFYNATQgMG/3ockw60JjJYhgmmlnFwcdttBH/x+PcwKgFkJaIZyxt1g/myKQK6Qky4bbNKYSAggm9fnAdsgSHcxJ1ZbT5MylnGNBZI88z1Ub8B4aJkyUxSMy798MfcAWs4MsxvQ7Aps9DLhNzDnBbteirBvoV0stw7ZyYwKZTnM9s0HcP9THfxL8M2/nNHffy5r/lRyjM1UHfgL9oWDNq0Kq2vAuz2w9jnQY3lB6vAW1nr1RDEXqqS+hE4AjhMs1W//ND38fTOpW8scESRAGFXs4vObwIUNHgeY/RQc/nu7Z1nhqVJONrZDJ48KlQACvP1rfqNFaULHT5koVVlSthNp9n2+THH4JHPqxwot0P1NWNH68jAn8akAH3kDXPektSoXFnNilUptLTFCYLgE0EDBvxR89w867ApVP5t69Rcmukb2FzfqEAfo+iQcvmWEszRB0SbxxyQA2RYRvlBol1m2+KRxoRKA4xvT6U0Wt6Ec+xK3eoPartbIfpCObLUG3HJokJrprzP9HvjRXfZ6tixi5GsnyQL7GskiQyOAAO5/1bdYUqZJ4bf/cqbQMuOWjAUk8eAvqdTF+8P4utgBbz+rFpVhs59bp/+ahZPrCjmZYN9C8sjQCKChgn/JL/tVnRn9KwJVl/SqShoCIPSgWF349bEPwk1fqqWx9NXtvBd++Fd7vQS+WMiJ1XFq9lKjRYZCAAHe/qkO/rmQ2S7rwLl7w7ojaxuoF1+HM++GX1neQ2cIIANjBl3Lr0UdYY72MM18zyJYn/vbuSd89aO1NJyeui8vqKT+Luyx00nhP6Wc1N3xKOEQgGPwTzOMLU2S3tz3NBYXAph9EBgSCKPc+RKMvzoMSYFlLLXMOKpLt80o99tKGzUC7jkc1lzZtkZ6cUf/AX7jcjW4cnqhQ76X3h4NrJkTAfRugFm0fIafCFci2LGf8ooqX2JYZfNLGokg26W32kbPHzyq9rd//9AYL2CrXyQzhQZbWch26WyU/W21+uxGMPMztuh04i5/FE74s5tuLSvw4deOF/sbBN3ER4YekgBMYCmTYaLSu0nENrXXTdk+d9MQQlrIoJkIoFp24ai87pmBm10Gddon4PhtXWqkB/vIXNjrV/auv9FchLML7XJienphr8mABBBpYGkw3fqIIEiWm3137ZDNQAACF5czTLMh3ba8XqtwgJ31KqjLxsOnN3SpkTx2wULY7yp4zO7Yr36FF7WswHr1+PbvJa9lzZ70Eli1N1Ic06SRCcDlwe+39agZuk2mzN9cbG8yBK87EHb8sEutZLEHXgu3OEamFE4t5eS0ZDUP3vpSBJD0w9/fDUMCZLjE5u0UvOuD12xIAqjRw8rmdTrgdN1V6wi48gDY/kNRjFK4Ms1ef7Pn37E8XszJZo51UgVfTACuS3lR9yJJT6ChCKDGB3/xOM/SluyLPIbgtNHlA8MrQcG9Urrhu/QOfPUG+62+S837DJ8pTpIbon4WopTfSwBpe/iX8AQSyRZsEAII/SCRti7dR5U/BpmQ0/eEI1OWI/DAf+CbN8IT89x7JHBWISeT3Gumq0aFABzX8WPsQrdmGBf3p0C9E4DNZqGgY9iW1+8rBFrvNvcInjEuHTsHf/kQTP4LWG7xX9ZcdXP3X7VxlrS+/ZP0AuqVAOL6bMrm9Tog0MXgY1thyi4wfqNqUzOa358pwml3wvVPB5b/hgg7FNrFMmczcDuxVJQUv/0rBhDmFNtlXCzW6Guk3gggSGS/Fnu2naMj9T1uBwI79WaJcNLH47tb8PV34ez7YcZ9tfQcVDmg1CG/rU1KemqnnwCAuFOH64UA4n7wl5y2ozt1k7L0JgjVtNC3//9U9g/stm40D8XzJbj0EfjFg/DmezW2oXyj2CEOpwPU2F4M1cVlsht9DtkM1qlx48tfX4YX54NJfbUpngCWt5LAjYWc7Gtjv6gwo8/S7cpl/ohS8w2BH1kNTBrxfhvCZla3Egzeq9fehj89B+Yor5vM8bQhFIHJhZx0hiAqVSLE5fquQnt4uh/3J4edb8vsfQ9Pi4EluZBiUnsBzNu/kJMjorZFNfmjp+v25QzGJbbbC1JNILDeKNjhw7DVmrDpaFi/FT60KmQGyFstvAPdJXiqAA+/Cvf9C/7+ikUjDhBROgodkneoUjdQawIw213NZA+rmG2vhgRsSpRR7YHa9wRgMyr/xWSn6+ZkMPvgP+JW0w3duiKs2AKZDCxcBK8vdMvZd2utghY4ppCTC4PUrYc61gRgtryara9hFU8Ay1vSZTdgWjyA/l6s2qmrDRMuA/YJa44kLMfcA/yVYk4szwNOWNuAzXsCGMBw3gMIOJtMTkmXdoqSCy4hFTVvXwRHL8jJU6nQJkIlPAEMYNykDgRx8YrS5gEsaca26XqwZjg7zLhAhM/A0qKFHxfb5X9jay/hhjwBDDAALrkR5tPoix+p/VAQszJi/sypQDYlrqQfG10Gwqx6ro5ueZczBI4MKiPOegr3a5mT50+WW+JsN+m2PAEMTABJ3wVYdV7EHRitqtAggLYu/ZTZMouyc1AZEdcrCZxWL5d5hm0LTwADEcAMHSNlQlpBDnvIKvLizo2otRfZTv0ygllI3qZWWSHVf0NgBsPpLJwglhkpIbWcIjGeAAYZDJdAYOzjmUB6dFh9bO3SAwSORkkqiekJgYtaVuT8ud+UN8LqV73K8QQwyMil+mqwmBOjopjcJpW4R/iigLlIY4so2lgsUymqcG1GmFVoF8fjPiPVLHHhngCGGIJUegF1/PYfzNRtXbpZWdlLKofP7gSsXtOTUbnQ5B7g9jL8ZX5O/lKTvAau7AlgiMFN41bpZa8Ea8S5OepM3UCGsbnARijmLCFzqJjZITBSYURGEFXeUzDf8QWBV1BeLMMzCo/Pv5cHuVosr/RoRAva98kTQBVbpeWcxN7AXwO4/vZT0yPjsIAnAAsr93kCt0Z2N0J1HZa6sac63CO8Bews4AnAzk6VcxOVmbY3BlmKtYElciyajWIeU/8W8ATgOIYxXsPt3/qOY+Ph7hbwBOBus94avfcklnuj1qasF1DM8tXK3JaG25FC648XlGoLJEYAZ9wN5s+m1Evaq01fPMZbIE0WMARgUl6tLv4M8/Qbcwuu9ZFgPvqdpjnjdWkgCzgRgOm32f1Wa7Hd8dbfjl/+qtXivr63wMAWEJe97wkZsbuYk5ReLJWQRXyz3gIhWUDSlOgyUJ/Svu89pHHwYrwFErFA7zmrLnGAuLX07n/cFvftNZMF0n03YANufGmmyeX7mn4LLD5pPY1eQL0depH+4fYaegssbYHFBJCCfPelNPOuv5+q3gLRW2Cpu1bSQgL+4Y9+4H0L3gLGAgNctgRJHoThH34/Mb0F4rPAgARgmu87EmuKbZZgrSqn+Zz7Wvvm63sLpNUCgxJAv8ImTyCTYaIKY9DFKcNWqcNVOt39/hFQc8pwGxnmlCZJd1qN5PXyFmhUC/w/B00gvgW6zuEAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQAAAAEACAYAAABccqhmAAAAAXNSR0IArs4c6QAAIABJREFUeF7tfQv8lVPW/1caucs15FJTRGgYUYTkktwpQy6jCLnlltAQJUaZEJJGY5I7r5K7FJXLpFxyLf9EZP4zKbnFeHnDe77Hc3qPX+f8zlrPs/dzOWetz8cnn89v7bX3Xns/37P22muvtRKMktDA1gD2BdAewPYAtgCwLoCVAXwLYCGAuQBeB/A8gGeSGKT1Wf0aWKn6p5iqGZ4KoGfug95dOarPAdwDYDSAt5Vtjd00UFYDBgDxbI5eAC4D0MxBd7cDGATgEweyTESNa8AAwO8GaA7gZgAHO+7mOwDnBhaBY9EmrpY0YADgb7UPBHBXDgDW99cFbgFwtkf5JrrKNWAA4GeBjwFwvx/RK0h9EAD7MzINqDVgAKBWWcUGhwB4rCKXW4a7AfzRrUiTVgsaMABwu8q83psJYB23YkXSBgO4XMRpTKaBQAMGAG63wiQA+7kVqZJGv8PTqhbGXNMaMABwt/x0xtHjnyS9BeB3SQ7A+s6WBgwA3KzXKsG9/EZhxDVp0gS//e1vscoqq2Dx4sWYPXt2GDGFNuekAIiijN/axqgBAwA3yj4fwPVaUb1790avXr2wyy67/Krpl19+ifvvvx8333xzGDD4AEBL7ViMvzY1YADgZt0ZnsuYfhG1bt0ao0ePxu67V44I7tu3L66/Xo0tXXNHgYdFgzGmmtaAAUD05efPNz3/Itp+++0xadIkbLzxxiJ+Ml155ZW44oorxPzBu4ETNA2MtzY1YAAQfd3/BOBqqZgZM2Zg1113lbIv5zvmmGPw4IOM+RHREgAbiDiNqaY1YAAQffkZ9MPgn4p07rnnYvjw4RX5SjHMnTsXrVq10rTdAcA7mgbGW3saMACIvuYfAdhSIuadd97BdtttJ2EtyXPkkUdiwoQJ0vYMDxabDFKhxlddGjAAiLae1N9PEhEtWrTAvHnzJKxleUaMGIE+ffpIZfQDMEzKbHy1qQEDgGjrziw+TNZRkQ444AA8/XS0IL3Jkydj//33r9hXwEC/BHMQGJkGymrAACDa5tgQwCKJiMMOOwyPPPKIhLUsz4svvog999xTKmMogEukzMZXmxowAIi27msA+EYignf+L730koS1LM+4ceNw1FFHSWXw3vBKKbPx1aYGDACir/vXANaqJGb11VfHt98y32d46t+/P4YMGSIVcAaAUVJm46tNDRgARF/31wD8XiKG4b28zw9LjCCcM2eOtDmdBZOlzMZXmxowAIi+7rcBYLbfihTlGDBmzBicfPLJFfsoYrgWwMWaBsZbexowAIi+5gy5Ze4/EQ0aNAiXX67L2zF//ny0a9cu/1JQSVMBnJRLRc5YBSPTwAoaMACIvinWA8DQWzExGpBRgRL66KOP0LVrV8yaNUvCXoqHH/8dQSrxsDKsXZVqwADAzcLeB6C7RhTN+cGDB2PTTTct22zs2LG46KKLsGiR6KaxUvcDDQQqqaj2/m4A4GbNOwF4Loyo4447Dvvssw+23nprNGrUCAsXLsTMmTPzMQMMHXZMtAZ4JODRwMg0AAMAd5uAQfqHuxPnTZIdCbypNnuCDQDcrdmOOQAIfVB3NwyxJAIBLRdzEIpVVn2MBgBu15TXbuJIHbddh5Jm1kAotVVPIwMA92vJKr7HuRfrVaJZA17Vm17hBgB+1obP/g7wI9qbVLMGvKk2vYINAPyszW8A/FdMTkG+DmI48hRH5ccLMQPmG/CzN1Il1QDA73IwnS9ThvsgFg84JWdpTA+ENwPQI/f/vO+PSmYNRNVgRtobAPhfKKbo5tt8l7n6bwLAjD8/lBj+3rkUZWMcWQMWPOR/fyTagwFAfOrnB8uqPZtF6JI5/q4TpCF3bQ1Y8FCERUtzUwOA+FfnaAC0CroIqwi/EpQbfyB3uzBXOVwmBbEjgVJptcRuAJDsarfJZe5tDWBzAI0BrAzgPwA+BcAMom9oHxqVmA6tAR4JeDSISnZdGFWDKWtvAJCyBfE0HNdHgjS9LuTcSPyX/4lStHvSM8V+HMgmWBb+89hdNNEGANH0l7XW/EBcXRcmaQ0UAK2nI2enz3Wknvj4alrwb6quVw0AfC59OmVn2Rpw5dNIcmVSFWdhAJDkVki2b5fWADc1bwp8kcurTV9j1MgtxFmMTfoxlgGAZtmqj9e1NTAoyD7kUlN0YNLUr0ZK8hiV16cBQDVuK/2c+IHRvC441PQS/q+Fq+Ahl7cXUebju22iUZcGAL6XNzvyXVsDUXIN1MrHX7w7XAGnascZAKjUVRPMrhxtUX7ZeFPhIm4hSwuWSLo2A4AsbZH4xuryF1h7zq3Fj7+wslpdRd4RBgCRVVi1AlwfCSTBQ66sjywvCkGgeVwTMACIS9PZ7cfldWGlQiU/Z1dNTkcemz/AAMDpulWtsDisgdDXfc2aNcPee+8N/tuxY8dEF4GFXKZNmwb+O3Vq6OzrsVkBBgCJbpfMde4yIKf4V44AM1+rDX7wU6ZMyX/4aSSCAIu7DBwY6kGm7+CqvMoMANK4c9I9JtfWACMIC05H8cz5UV1xBV0G6ScCQadOnfJWgYJisQIMABQrYqy/0oBLh92XwXNokYr5q0+TP0sUEgQYSxH6HCHRjwGAREvGU04DLq8LRVrmh08AyCLRJ0BLQEHenYEGAIrVMNayGnBpDdSrZpZKT+uZX7I/WB5e4RPwfgwwAJCsmvFINODyurBkfz179sSYMbwsyC7xKNC8ufia3wAgu0tdkyN36SBcQYH8+AkCWaeVVlL97qqYtbrxKlw7GOOvGg14sQaybv4XVpd+AEWMAM0F1fWBZhcZAGi0ZbwaDTi3Bn7+uToCBZV+AK83AQYAmi1tvGE04Cx4yAAgjPrrb2MA4F6nJnFFDTixBgwA3G8tAwD3OjWJ5TUQ6brQAMD91jIAcK9Tk1i/BkIHDxkAuN9aBgDudWoSK2sg1JHAAKCyYrUcBgBajRm/Sw0QCOYAWFUi1ABAoiUdjwGATl/G7V4D0wG0l4g1AJBoScdjAKDTl3G714A4B6ABgHvlGwC416lJ1GnAAKB+fVkgkG4/GXfGNGAAYACQsS1rw3WpAQMAAwCX+8lkZUwDBgAGABnbsjZclxowADAAcLmfTFbGNGAAYACQsS1rw3WpAQMAAwCX+8lkZUwDBgAGABnbsjZclxpgQRBRZQ8LBHKp9l9kWSCQe52axMoasMdA8mpBFghUeT8ZR0Y0EOrDL8zNLAD3q2wWgHudmsQVNcBEIEznKzL1yynQAMD91jIAcK9Tk/iLBiL92pdSogGA+61lAOBep7Uu0fmHb0cAf/UBDQBq/XN1N39m/+0RmPrupBZJMgvAvVoNANzrtJYkFn7tI5/vJUozAJBoScdjAKDTl3F7Ot9LFGsAINGSjqcWAGANAOsAWA3AygB+BPAfAF8F/+o0Vtvc/MUvePRj14QBgHuVVxMAtAbQFkAbANsCaAFgMwAEgHK0FMAnAD4IklO+CeAVAO+7V3WmJTq5xouqAQOAqBpcsX2WAaAxgEMBdAGwD4CNHaqHoPBsLlnl0wAeq1FLwZs3P+w6GQCE1Vz5dlkEgG4AjgPQ1b06SkrkkeFBAPcAeCKmPpPsJs4Pn1Vv/xvANpIJGwBItKTjyQoA0Iw/G0BvACyXnBQxh/0oACMA/JTUIDz1S08+Tf1I0XrCsQ3MrePYoOy1vQasX2k1/RagYe4X4hIAFwaOPOH+8s62MOdb+AuA67335LeDuH/t78g9QBtUZ0oGAAYAJTVwUrBZNvf7DUSS/l6uNX/NHogkJf7GafjwC7OuOQA46aSTcMcdxEIR0eLlUckLpfEIwPPgsJw3/mAvM/YjlD4CWil0HqaZ4rzGmwqAIF5p846RRg9OmTIFe+/NgMNsU/PmzfHRR5XUsnyONQUAPOPzfE3TP2v0ZeCnoLMwbRTXNR53NX/aCud7iR7EJcMHDhyIK64ge7ZppZVUv7sqZq1mvApXDmY0gFOUbdLIfgOAC1IwsDSZ+fWpQwwA/PWnFZBl4i8/LQAFef1GvQoXTpJnfP5q7inkzwIbrwtPAECrIG6K08znLz6deuIDbQll0KYXfdXNmjXLAwD/zSp16tQJU6fydCQi6pXHKG+UNADsBOAhAL/1McOtttoKm2++OTbYYAOsueaaaNiwIZYtW4alS5di8eLFWLBgAT788EMfXVPmGwCOCqIMffVRLDcuM599Fl/jRZ0bv2bmBRRRlq0AfvgEAAVRz3VvTRTNK7MmCQAsCc0ouw0qD7MyxzrrrIPOnTvnnUTt2rXDjjvuiJVXZuh//fT999/jjTfewMsvv5xH5okTJ+K7776r1Ez6d4YYHwZgtrSBki8rZn6laYlvAvLok1FfgPLsz6l6dQCyg6QAYGcAEwGsX2lnVPp79+7dceyxx+Kww/idRacff/wR48ePx7333osJEyZEFwjQxDggdySY50JYIKNaPvyCSsR+gEKDLIEAf1h49afw/Bem6f379N5BiU1Pc5+Iv0XYD6JRo0Y477zzcNZZZ+VNfF/0/vvvY8SIEbjpppuidvFW8F5hSURB3pNuFI3PpZlfadqqY0BBGH0BY8aMSfXV4KBBg/IWSwjybv4nYQH8BsALANqFUEi+SZ8+fXDZZZdho402CitC3Y7IPXjwYPz9739Xty1qQIuHD5e0FGfSjcI1ntdzZxkFMBSZMQFqIhAU/uvYsaO6vcsGH3/8cV4cf/UVzr5SQ4jlxzmWTopmd3fuqe3xYRTevn17DBs2DB06dAjT3Ekb+gf69euHt99+O6w8xjj0ETauNjO/0rQ5X1qG2XXxV5qh/O/0/Ee5WRH3FCcA9A0i/MSDKzBeeOGF+MtfGHqfDjrjjDMwahTfBIWiXrnjT32mRNau8UIpwbUV4HIQCcviHaHqqiDKeOMCgF0BzAgz0LFjx+LEE08M09RrG/oGeBwJQXz+yqQldZOOxHWNFyZaL8Q0QzdROwRD95S+hlwbfvziOOGoU4gLAHju30MzWF7rjRs3Dvvuu6+mWay8Dz/8MLp164YQ79R5/clri1oz8yXrQ53QF5D9oH/JbH/N4/Xpb6nhxAEAatN/3XXXxRNPPIHddttNr8KYWzz99NM4+OCD8dNP6vQAjwA4PIbhuojWi2GYv+qiFv0BsX/81LhvAGiCX+7BV5fuoAYNGuDZZ59N9dVO3bkwXuDII4+UTjEuvjiv8XzMKU7ryMf4pTIJ0HT6ieODpYIlfL4B4EYA50gGUuBhAA4De7JGt956K84888ykh53kNZ6vuVezT4BvRRgOH9uZv+4i+QQABvwwFFZMAwYMwJVXXinmTxsjnYJ0DiZA1fjhF6uxmv0C3sN969uPPgGAz2LPk34MdPZNnjxZyp5avp133hmvv/56XOMrpNhK7BckrokG/TBYiOXHqslBGEvEX7l18gUAawNYBKCRdIO8+eabaNOGt2PZphAvvrQTTvs1nnY+YfgL/gECQTWAQWJWgC8AOBfAcOnKMrSXobbVQnyjMHLkSNfTqXYzP4q+CtGD/LdSJCFfn2qiysK8x2c8Mq0VKSVmBfgCgJm5HPq7SGa/ySabgPHTv/kNnwlUB3366afYcsstwafGDiiL13gOpu1NhMapSN2r0vcUjZo5DiqBUYE99gCgQsc+AOB3QTIM0QoyxJehvtVG/fv3x5AhQ6JMK+vXeFHm7rOt5sOM8susARrON0pfofXlAwAGABC58hntx19LPu+tNvrXv/6Fpk2baqdlZr5WYzp+7bPjKN+HNpgpESsgygTLqf4fuWQfohC+c889F8OHi10FuqVOAfcf//hH3H03H0CKiCnEeCds5E8Dml/lKOZ/YQaa/tgmtleAvo4A6+Weu4qTXsycORO77CJyFfjbEh4lP/XUUzjooIOkPbBkeX2VjKVyjK+8BuIy/wsjSL0V4NoCYLXeRyU7sHXr1nj33XclrJnmadKkCRYt4o2oiHbPpQ+bLuI0Jq0GtOa/q6s5ceGTYEKxWgGuAYB3eZdJVuaCCy7AddddJ2HNNE+PHj1w5513SufA69PI+cekndUYn8Ycd2H+h7UCMp0PgL/+tAIq0qOPPopDDxWxVpSVZgbmrDv55JOlQ2SiECYMMXKvgbjN/+IZpNYKcG0BMPNtC8naMS8/8/VXO7333nvYdtttpdN8WepAlQo0vrwGkjL/i60Ace2D4GVgLFmBXAJAAwA/SjYcEzjOn6/Rh0RqennWWmstfPPNN5IBLgYQX7ZTyYiqgycp8z/1VoBLAGCa719SolYgFvBggs1aIeUDId4E8EbAyJ0GNIVHfAXkiEugBdOOxRfgEgDa5kp6vyJZs1NOOQWjR7MWaG3QEUccgUceYQIgEdFcFQGpSJoxJW3+R7ECXN1ElN0FLgFgPwCTJPvtT3/6E66++moJa1XwnHbaaRrA2xHAm1Ux8XRMIg3mf0ETqbMCXAKAOAbgmmuuwSWXXJKO7RHDKPr27Yvrr79e2pPFAkg1JeNLg/lfPFLNbQTbebUCXAIAk+KNl6xJtT4AKjf3iy++GNdee61ENeRhmfQXpczGV68GtOZ/HIk5tVaA1xLhLgGAaa5FB91aswD42lER9GQWgDtUS5P5n0orwCUA7A/gGcnaXXrppbjqqqskrFXB07t3b9x2223SufBBEB8GGUXXQNrM/8KMtHUQvVkBLgFAXP2HTrG//vWv0Zc3IxK6du0KFhEREpOp1k6QhFApIdjSaP6nzgpwCQBihR944IF48sknQ6xpNpvwxeOrr74qHfxaAERRQ1KBNcqXVvM/rBXgJT7BJQAwp9cPks3WsmVLvP9+3dJ4kpbZ5GncuDG++uoryeA/B7C+hNF4KmogreZ/qqwAlwDAiYmvOL788kswI1C107x587DVVltJp8lAKh6ljKJpQGyNBt3E4f0vNSONlcL2zq0A1wBAu/5AydoxWUaXLl0krJnmYUYgZgYSEt8NM++9UTQNaD4sl09/w4xa/KMZCL81SLrzBYAFAJhUY06YjtnGNQBcA0AU4cO78YhJM8POOdZ2DHu+/fbbpX2ykKo4YkgqtAb5NM9vnf+qKvWtAatyoplx5ukgDkd0FV8Q5BoAugIYJ1HAjjvuiFmzZklYM82z+eab45///Kd0DnsBYCl1o/Aa0Jr/sWbgKTMtrRVQn3boXGNNzlskKnQNAKwGvFDSMXmqpRpQufk+99xzYMkzIf0PgNWkT6qFMmuRTXPHnrT5X1gfseWsWFDGktAar/fZrWsA4Ph437WzZKDVfgw49dRT8be//U2iCvLQhBP5T6QCa5RPY1Inbf5ziRhAx6exW3paL6bop05Kkg8AEOcFZMLMhQvFBoMn/fgR+/nnn4PzW7ZsmbQDFlKl6WYUTQM/K5onDQAaa0UxrRVY7wJwYikBPgBAHBHIAbGcNmvpVRuxzPkVV5QF3lLTZSq1D6tNDzHPR/vQxsf+l06ZvgfmgIyLHszdFhxTtzNfCngr5wzcQTKzFi1agHfl1URLly7FFltsAcY6CIlBK/sIeY2tvAY05n8sGXfKDJX3308lsJB0DJ5d3K8vALgo59AaKp1gtb0OvOiii8Anzwo6BYD4rlAht9ZYs2D+01H+OoBNE1qc3rm+l79M8wUATGz5qXSCrAw8Z84c0BrIOjHmX1nt6CcAp8ZsDmZdzaXGr73+87X3K+mW5/ETKjF5/Pt/A9imkHbOpxJGASDaiOjwww/HhAkTRLxpZurYsSOef/75MEPkk89BubryvJoy0mtAY/4ndf2XlOlfV5sMlMoXq/AJANsBeEezjsya069fP02TVPEy1yGPMxHIqgOHV14WzP/JuUAvcWBIQRU77bQTDjvsMDC79EYbbYTvvvsubzFPnjwZ48eLknCV0mo+96RPAGCnPGvQvBXT448/joMPPljMnxbGe+65Byec4MyyS6RUdFp0GWIcWTD/WTGblbPFxPoZQ4cOxdFHH122DV/VDhgwAA888IBYbsCYdwj6BgAmNFRdbfGFICPofv/732snlBi/MuJPOk6zBqSa+iXQhXf6EkrK/GeMxzmSAZJnr732wrhx48TVs0JcO/N9emPfAMC5XB6cbaVzx5ZbbplPGMIKwmmn6dOn50uAK678tFMyIKissSyY/+J4f+bLmDFjBtZbb73KMy/iYMHdG264QdPmwDgAgAPiqx+eOcTEe3Seb3juSSvxl79bt24+P/7iqZuTsPRGyIL53wrAe9J9zPRxLCYThliHkvUohXRNXADAIJdnhYNazsaaenxPTwdI2kj5zt/V8M0aWFGTWTD/GYF3v2QTdOjQAS++GD4r/MiRIzWRtc/EBQCcu2ahfqUrVhGihz0t5MDbH3Uq5iT8Pw1mwfy/FIAoDXbUm7AlS5aI/QbM4BUnAHDJmKwg1M85E4kyt76i1HbUj2yF9q+88gqY4z/kPT/l8Ymm6ihUzyTMGtCX/Y57vxeW76ZcFp8+kg05depUMJYkCrVq1Qpz586ViPguboXQq0H7ZlvJ6Erx8IENrz1WXnnlsCLU7b7++msMHjwYw4YNU7ctajAdwB65iD9WUWbsP8+uLqiWgUBjVSbl/eca8014L8li8/zODzgK7bHHHnjppZdEIuIGAA6Kv4D8ABqLRliCaZNNNsH555+Ps88+G6utxhwafohPevlakZ7ViF7+uiY7P37m/pNeXUkmWItOQrFnPdA1Iy2TIBbBOE3SMbNkMVtWFFKkof8pCQDg3OgUZKaShlEmuuaaa6JHjx447rjjsPvurKjlhqZMmYJ7770Xd9xxh+Y9f7nOl+QCQDoHD0Dq8hAIGJbJZ6wuqJasAa3332uRzQqLNwTAxZIFvu+++9C9e3cJa1keXh9+8QVzhlakz5ICAI7sgFzmoMcAsJ5AZOJDogMOOCB/fmrfvn3+Oa6UPvzwQ/A+n+eviRMn4pNPPpE2rcT3GQBWTX65AqPGlK3UJ/9eC05Cjc6SNP+5HmdKc/T16tVLk0Vqhb1A/5TCh/BakgDAwfOX7yEfxTA22GCDfD5+JuXccMMNQWuhYcOG+V90vtdftGhR/kOns0SIlpIPr5iH5ulRZX75S8lyfSyoBmuAZdKoFz6dZcGUtQE0Ct6w8KOSHiOTzvxDrx7zD1SkVVddNZ9Edv31w9WHoUV8553MLi+isUkDAEfJxCH3SBOIiKaVPBNjvo8rPLlUDocbvhadhMyJxw+FMfOM/moTfOxK9ZVkT9L854DoqPqPdCIsJjtqFB/T6uiZZ57JW8EKOj0NAMDxsh4e0yPxFzPrtPypZYSJuLYGOJQ0Ognp7WIq+UNyV8SsiuyDfgzmzrfmj/voQCiTSV/FX+eNN96Ic84RPx3Il9rbb7/9sGABa4WIqWVaAKAwYqYxjvSeVjx1P4y86x3hUHQ1Ognp+GUGJN6CtHeoK4mofwNgQg5mXxJdlEuECnk4Z2b/FROvvAcOrHxRNGnSJDAD9ccffyyWnXPEM2lFx7QBACdAE/C64F/NhJLknZSr6Hth7teMuRB9kMbhJek/CSchz+vMfEyQ1L1ykcxIz3NfkIV5hr5pqBb0XTBLlqogZtu2bfPX3XwSXPfKm3f9TDvP26oQlC+IkkYAKMxlJoBdQkwsziaLg9eO+gObfpSujwVxOgkZx90fwJr6aXtvQf8Tw3TFL2gijIg/56pU0cV9tWnTJh/my4QgTKS7eDG3Xyj6f0FaMK8ZgUKNLGikveON0leYtqzicy0A3u9+E0ZAhDZZchL+Ifi4to4w37iasp4Fn677pFUBsHTXZj47Echmtdq7yZdWC8C1ySvQiYiFRRj5a89zfmj4FfVUP5Nra4C9uXQSrpszdfkwPWuVjnmEOz+Xj+M5B2tUTsSxAO71KL+SaF67E5jzlFYA0LzwqjRhF3/nGZ+m4lgXwhzKSKOTkOXNWMLaV6krh+orK4qWAC0CX3Rz3fz8vjqqI5dXBO2K63emEQC05j8TjzLNcaSw4jqK+i7IX8CrG0Yrqu5WYlrM4m5cW0xhnYTM6MqjUTUQq1zTgvnW02S4r3j9GRcx/XynwPu/vM80AoCmtnshxJMfPx8DtAXwu+C1IaPIJOFUNOU/ADCbWVIBvJK7r+XLvayR62OB1knIJJOMzqsmYiYrmux0mrmmVQA8qokNiDAAfvx8hv9EXRlpAwDtr3+lEM81cjHYGwZXL4zG4htiBoYwKotJEXmm5699NVESTkKmpC2fujaEdtdYY418OrjtttsOzJHXtGnTfI681VdfHQ0aNMD333+ff6HJ4rLz58/Pp8l+4403XL7jKIz6/wfBSryV8kGM26VTzhfReqX8ksUq0gYAWlM2beP3tYhaua6tAfZfzknICLvDtQMsxc9M0Iceeig6d+4c+nUnr8eeffZZPPHEE3jsMVrZTujzwFz3ZRleEMS+OBlskZD/CuIuylbpStsHpHH+Jf3Cy/Vi+ZDn20nIirPLPcphJtCoUaN8FFvPnj2dJ4D97LPPcNddd+WDZWbP5gkvEvGouH9wTIwkqExjJsnhD+AKFXxDdMaYBsY20HFdL6UJALTmfz6SqdIE7e95DXBjsRa9yyxEbwdPnUOpmB8+i6gyscu66/LW0C+xcAsLtr75Jt08oYl3+HywxJBiX0QvPcOGjw8eEWn64YtDfhPi26o0AUAY559GObXO6+NYEEqnfPPOQhabbhp/gVw+srn00kvx7behnfuMEVCX9wqhKObJYC3BPXPOQlbJaZmLQdk4eCFJpx6PJQz+JxDzaMKyY6oiPBxTWgBA++tfyfkXQt8108S1k1CsOJa6Gj58OFgINknii7nzzjsPzL8fkvJltUK2jdqsQS5ikQDghNICAOb8c7KcYiGxWwNdu3bNn8XjMPelWmDdvUsu4QPUUMQYAXHmjVA9xNAoLQBgzr8YFrtEF66dhCVnwYrPzHefRmL1KeaU5LWikr7OZbPaPpft11n+OGX/TtjTAABa89+cf06f+Wc+AAAN5klEQVSW/ldCXDsJlwtnufQIv7LuZ1pC4gsvvJAvxcUs0EpitR8GCmWW0gAA5vxLx/ZxfizIwsdfUD2Twnbp0gWsAaGkbrn0ZeOVbVLDnjQAaH/9zfnnf+s4cRJefPHFGDKEr6WzQ8wITRBQEl8QMvw8k5Q0AJjzL53bJpI1wOw1DzzA6ODs0ejRo3HaaaIaHsWT4xsIvoDMHCUNAOb8S/eWIRC8oElgwVTsr732GljZOat01llngVV2FcTHZLynzxwlCQBa89+cf/FvL+buYxy5+Kn1k08+CRZyzTptv/32ePfddzXTODmo8qRpkzhvkgBgzr/El7/iAFjOSnyQP/PMM3HLLYyRyT7xMdEhh6ie67P6ExPaZoqSAgDtr785/5LZVnxBI6rkvM4664Al1vhkt1ro+OOPz9eIVBBzUvh6MagYhpw1KQAw5598jZLiZNk2VigS0Z///Gf078/Ev9VD77zzDnbYgYWrxMRUX/JqHmKx/hiTAgBz/vlbU1eSxXnrGN7773//G3zhV23EZ8pjx4of1/GVYPwvnCIoPQkA0Jr/5vyLsMARmjLfgiixZxbv/KV6efnll7HbbqqjPS2naVL5SfMlAQDm/Et61Sv3zzp9r1dm+4WD6bi22YZ5WauTOnTogH/8g/VeRXQ1gMtEnClgihsAtL/+5vxLZpOwhBfz+lekvfbaC9OmZeYHr+J8SjEwhwCfDwuJSNFByJs4W9wAYM6/xJdcNABxqq9hw4ahb9++IqFZZfroo4/QvDkrjIuJzpAfxNwJMsYNAOb8S3CxFV0zs4xox7/99ttg0Ey100477ZTPOiwkOg0YF5B6ihMAtOa/Of+S2T6s4vuFpOuNN9447/2vBerTpw9GjBBXfudjAlUp8KR0GCcAmPMvqVXW9bsrAFHJbEbKOUy9rRtlzNx33nknevQQlzpkeXuWi089xQUA2l9/c/4lt3VY4EP0lI+JPvjmvxZo1qxZYN0CIbGs2FFC3kTZ4gIAc/4lusyqzsU3AHw6e8opzGBd/bR06VKsvfba0olm5l1AXABgzj/p1kmejwUlLpUM46mnngqTQEMiOpU8jHhkOTIBzcsV5dhKwJc4SxwAoDX/zfmX7La4KSgnVXEUM2bMwK670mVQG9SiRYv8gycBseZkEwFf4ixxAIA5/xJfZtUA/gpAlBKHj2VYvLNWSJEjgIVneZuSevINANpff3P+Jb9lbgNwqmQYTJjRunVrCWtV8LRp0waMexAQM4uuI+BLnMU3AJjzL/ElVg+AGT2Y464ivf7662CATK1Qq1atMHfuXMl0lwDYQMKYNI9vADDnX9IrrO9/KICLJM2ee+45dOrUScJaFTxNmjTBokU83lck1uxzVYi1YmdRGHwCgNb8N+dflJV011acBowVd1lVpxboxx9/RMOG4tSIs4KCnqlXjU8AqHbnXyF1NheZb8CjEt/fk/i0jv/PUs9xE0uI/0Vqvl511VX5Sru1QPPmzQMzHgvpKQAHCXkTZfMFANpf/yw5/7R+jbALTBBgrfdBYQUo2hHAOC8VkDFn3t13363oJrusjz76qKaq8ahcNuUzsjBbXwCg/Uh8jcPlGqhy5DnsmEBAECAYuKZQH35hELwBUKbOdj3+2OQNHDgQgwaJsZjvo6+PbXAROvL14c1XOEG4wUVPTyPMM2pTmsY80iRFrq0BWmiFgqCR5rRw4ULQOVbt1LlzZ0yaNEk6TRZGeFrKnCSfDwDQmv9pd/4l9ctfal+4OCppfDMV9yaPADwKVDOxdPgaa6wBOgKFtHFQUEXInhybDwDQbLC0//qn6ePnLqG+CJhhHITaY5loVx577LHa3PkiuWlieuihh/CHP/xBOiQGCrSSMifN5xoAtL/+Ln7RfOpQc5TxOY5i2VrQ5PGFH7+Xe2mmAv/iiy+w2mqrxTX/2Pvp3r27ptgpE4GIQqljn0iJDl0DgPZXxnX/LnWa9Lm/vrlIjk0cPzNYqDz7YRQ4atQo9O7dO0zT1Ldh4I/Sx3EMAOZUzAS5/gA1v5jaX7K4FaqZS9xjq093kTz7YSay884749VXXw3TNPVtBg8ejMsvv1wzTiYNWKppkCSvSwDQmv+SX7GkdJO2s38pPTAGt9gXEPuHXzwonpO7deuW1Hp56XfZsmVo2rSpNPyXY3gYQFcvg/Ek1CUAVJPzL83mf2ErFPwnzq70Suwxur1Xluy9du3agVV0qokY6ThgwADNlLpL06lphPrkdQUA2l//tDv/xGC29957Y8yYMWjWLJqPjbnnGWhyxx3ieB/qkJ0SrFwTLQtGvfA8e7pU+MiRI3HGGZkIgKs4pQULFuRDf3/4QZze/1MAvP7LFLkCAK3zj4E/hdj3NCpMDABTpkwBQcAFTZ06NenXdXWvGdsCeEU6t8aNG2P27NnYZJNNpE1Sy8dHTvfdd59mfEylpjIXNMJ98WoBgL84pX7qqCkp+i0EcGwRAKQRCFgWW/RVz58/P/Kvf2FxQ1SgcbkvyvlkHgVwqLQj3pc/+GBmnOAlp3X77beHSXbaNHf99y+pntLCVwkA+BEUrpKi2bjlZ1wwNwkEaQGDWgKASsexfQFM1mzYa6+9Fv369dM0SQ0vq//Qn6Ew/Tn2GwGIiwemZrK5c145APDpWCo3/wIQhIlyc63TWgCAwktDCeiOB3CkRskPP/wwjjjiCE2TxHm//vpr7Lnnnnjrrbc0Y1kWlFHP3K8/J1kKAJK+Aqv0i6RZnLC81QwAmg+/oD9WxHhNo0xGCPLxDD+orFCXLl0wceJE7XAZJDBY2ygt/HUBIOmPv6AXgsDYBI8E1QgAUS0sJgpRlbtiHn2WDuvQIf3Vsg8//HDwzb+SZgPIdFrkYgDQXuUpdaVmT9ISqCYAiPrhFxaO8QDvah+68BUdnYIHHZTOBDl8x3DMMcdonvoWb+RDADyh3tkpalAAgLR9/AUVJRUtWA0A4CORSBcATHelpltuuQVnnilKNqyWHbYBw5d79uwZNqnJcADnh+07Le0KAKC9x49r/NzEDHmVOKpcjinrAOATOK8Me9/NOoI333wzVl11VZdrFUrWrbfeirPOOgs//6xJXL28q8zU/qukHAJAWn/9k7QCsgoAcR2bGPMeysXP8lpDhgzBUUclUzyXef379++P8eN5sRGKvsll+2kfHIdCCUhTIwJAWn/9C3riGTbu5PNZA4Awnv0o+5Av3p7PPX75XVghvCLkhxhXbcGvvvoKQ4cOdVHOnNehE8LOO23tsgAA1FncocNZAYC4P/zi/btNECDECLjQxBeEp59+Ovbbb7/QMupr+MEHH4BlzOmD+OYb/nhHIj50YMbfqiECgHizc9Z0mkR9+MKYd4a98j8hGQCsqCgmnWTyySRpl8ApuH7UQeywww75tFu8jmMNvii0ePFiPP744+AT5SeffDKKqOK2DG0c5kpYWuQQAMRekJAOk5JzPemkkzQv3+q+ffetPzEoJvgWgL/+dPYlTe0Ck1j6FqTieJs3b4499tgDbdu2BSvytmzZEpttthkaNGiwQtslS5bkS3bPmTMHrFU4ffp0zJw5s2IfSgbGP1ynbJMJdjEA8Fefm90V8dkrQUBIPr3apYZgACBcmIBt++AdvNdSwQwsYu5BAgEz9fJcr4zZ183qF27m92Oev6okMQDwySufvroiA4AVNal8DZgWC6AwEVbDvQsAYwWqgb4AcCKAx6thMuXmYABQWjNmAYTf9TwnszJOlok3HKcCENUCz/JEDQBKr14iCUGUVlHaLIBiTR4dPJF15heI8SMbAqB/jP0l2pUBQGn1i2MjeDTq0aNH5JuRadOmgbcj/E9IcQX9CIezAhtvBoYC6BVWQMztmPnoEgDPxdxvot0ZAJRWfxaSgsbtGA27UTsD4JPZtD4J/DJ4zpuJYp5hF8F8ADrNpT08mrOJOzZCp8EVuVlA8AIAzC2QBmJU0A3B3f7XaRhQEmMwC6C81sWOwAQWLonwaFfTZCgtHWxJBTG9B+D2IKIvcmigK6UkJccAoLzm03wMiDswysf+ZCgx8+izkMYOPjookskrPb7+YbbSZzz3lSnxBgD1L1carYAs//qX0zaz6uwfZGLeHcCGEb8iFjThk11e5z0b/BdRZHU2NwCof13T6Auohl//Sl9TCwCMLtw68HVsCoCBRnyF2CjIZfk/uRRlNOE/zxUvYar5BQDmAWCarjdyOQsIAkYVNGAAUHmLpCVPIkdaCx9/5RUxDmcaMACQqZKWAI8DvmojVBpF3Yo9lfjt76YBkQYMAERqyjPx42eEoKhikFxsRc6k0qJVHJgxZF8DBgD6NYyrDLf96uvXxlooNWAAoFRYETstgoI1sGV4MSu0nJaTK44HdtiviapBDSQGACyFPXAgw9lFlJWwV9FkjMk0kBYNEACY5UPk3HKZ/YZZXxQpwcz7nZYdY+OoKg2oAIAz5+u3qKR48VboygAgqtKtvWmghAYIAOK37wlpkM4wPnwxMg2YBhxrgACQpkCXUtNL+7t3x0ti4kwD8WmgUBpM7AeIb2jLezLzPwGlW5e1oYG01wasxocvtbGzbJaZ0EBxefA0WgFZS3qRiUW3QZoGChooBoCk493rroqZ/rZPTQOeNVAMAOwqLSBgH7/nhTfxpgFqoC4AFLSSZCIM+/htb5oGYtJAOQBg90yJxfTYoihBB+NNc557B9MzEaaB9GmgPgAojJZxAj0CICiAgQtQYIAPvfyFxy/iUsHpU6ONyDSQTQ38LynlNe3wqTaFAAAAAElFTkSuQmCC</t>
   </si>
 </sst>
 </file>
@@ -20650,16 +20668,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="6" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.77734375" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20702,8 +20725,14 @@
       <c r="N1" s="1" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -20746,8 +20775,14 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -20790,8 +20825,14 @@
       <c r="N3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -20834,8 +20875,14 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -20878,8 +20925,14 @@
       <c r="N5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -20922,8 +20975,14 @@
       <c r="N6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -20966,8 +21025,14 @@
       <c r="N7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -21010,8 +21075,14 @@
       <c r="N8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -21054,8 +21125,14 @@
       <c r="N9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -21098,8 +21175,14 @@
       <c r="N10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -21142,8 +21225,14 @@
       <c r="N11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -21186,8 +21275,14 @@
       <c r="N12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -21230,8 +21325,14 @@
       <c r="N13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -21274,8 +21375,14 @@
       <c r="N14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -21318,8 +21425,14 @@
       <c r="N15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -21362,8 +21475,14 @@
       <c r="N16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -21406,8 +21525,14 @@
       <c r="N17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -21450,8 +21575,14 @@
       <c r="N18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -21494,8 +21625,14 @@
       <c r="N19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -21538,8 +21675,14 @@
       <c r="N20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -21582,8 +21725,14 @@
       <c r="N21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -21626,8 +21775,14 @@
       <c r="N22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -21670,8 +21825,14 @@
       <c r="N23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -21714,8 +21875,14 @@
       <c r="N24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -21758,8 +21925,14 @@
       <c r="N25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -21802,8 +21975,14 @@
       <c r="N26" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -21846,8 +22025,14 @@
       <c r="N27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -21890,8 +22075,14 @@
       <c r="N28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -21934,8 +22125,14 @@
       <c r="N29" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -21978,8 +22175,14 @@
       <c r="N30" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -22022,8 +22225,14 @@
       <c r="N31" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -22066,8 +22275,14 @@
       <c r="N32" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -22110,8 +22325,14 @@
       <c r="N33" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -22154,8 +22375,14 @@
       <c r="N34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -22198,8 +22425,14 @@
       <c r="N35" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -22241,6 +22474,12 @@
       </c>
       <c r="N36" t="s">
         <v>1070</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1269</v>
       </c>
     </row>
   </sheetData>
